--- a/tools/tisax/tisax-v5.1.xlsx
+++ b/tools/tisax/tisax-v5.1.xlsx
@@ -730,6 +730,7 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr"/>
@@ -741,12 +742,13 @@
           <t>1.1</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
         <is>
           <t>Information Security Policies</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr"/>
@@ -758,12 +760,13 @@
           <t>1.1.1</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>TOTOTo what extent are information security policies available?</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>To what extent are information security policies available?</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -836,12 +839,13 @@
           <t>1.2</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
         <is>
           <t>Organization of Information Security</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr"/>
@@ -853,12 +857,13 @@
           <t>1.2.1</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>TOTOTo what extent is information security managed within the organization?</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>To what extent is information security managed within the organization?</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -901,12 +906,13 @@
           <t>1.2.2</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>TOTOTo what extent are information security responsibilities organized?</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>To what extent are information security responsibilities organized?</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -999,12 +1005,13 @@
           <t>1.2.3</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>TOTOTo what extent are information security requirements taken into account in projects?</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>To what extent are information security requirements taken into account in projects?</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1096,12 +1103,13 @@
           <t>1.2.4</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>TOTOTo what extent are the responsibilities between external IT service providers and the own organization defined?</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>To what extent are the responsibilities between external IT service providers and the own organization defined?</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1200,12 +1208,13 @@
           <t>1.3</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr">
         <is>
           <t>Asset Management</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr"/>
@@ -1217,12 +1226,13 @@
           <t>1.3.1</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t xml:space="preserve">TOTOTo what extent are information assets identified and recorded? </t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">To what extent are information assets identified and recorded? </t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1291,12 +1301,13 @@
           <t>1.3.2</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>TOTOTo what extent are information assets classified and managed in terms of their protection needs?</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>To what extent are information assets classified and managed in terms of their protection needs?</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1362,12 +1373,13 @@
           <t>1.3.3</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>TOTOTo what extent is it ensured that only evaluated and approved external IT services are used for processing the organization’s information assets?</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr"/>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>To what extent is it ensured that only evaluated and approved external IT services are used for processing the organization’s information assets?</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1438,12 +1450,13 @@
           <t>1.4</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr">
         <is>
           <t>IS Risk Management</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr"/>
@@ -1455,12 +1468,13 @@
           <t>1.4.1</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>TOTOTo what extent are information security risks managed?</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>To what extent are information security risks managed?</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1531,12 +1545,13 @@
           <t>1.5</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr">
         <is>
           <t>Assessments</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr"/>
@@ -1548,12 +1563,13 @@
           <t>1.5.1</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>TOTOTo what extent is compliance with information security ensured in procedures and processes?</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr"/>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>To what extent is compliance with information security ensured in procedures and processes?</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1621,12 +1637,13 @@
           <t>1.5.2</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>TOTOTo what extent is the ISMS reviewed by an independent authority?</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr"/>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>To what extent is the ISMS reviewed by an independent authority?</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1691,12 +1708,13 @@
           <t>1.6</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr">
         <is>
           <t>Incident Management</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr"/>
@@ -1708,12 +1726,13 @@
           <t>1.6.1</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>TOTOTo what extent are information security events processed?</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr"/>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>To what extent are information security events processed?</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1822,6 +1841,7 @@
         </is>
       </c>
       <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr"/>
@@ -1833,12 +1853,13 @@
           <t>2.1.1</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>TOTOTo what extent is the qualification of employees for sensitive work fields ensured?</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr"/>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>To what extent is the qualification of employees for sensitive work fields ensured?</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -1905,12 +1926,13 @@
           <t>2.1.2</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>TOTOTo what extent is all staff contractually bound to comply with information security policies?</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr"/>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>To what extent is all staff contractually bound to comply with information security policies?</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -1977,12 +1999,13 @@
           <t>2.1.3</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>TOTOTo what extent is staff made aware of and trained with respect to the risks arising from the handling of information?</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr"/>
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>To what extent is staff made aware of and trained with respect to the risks arising from the handling of information?</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -2058,12 +2081,13 @@
           <t>2.1.4</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>TOTOTo what extent is teleworking regulated?</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr"/>
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>To what extent is teleworking regulated?</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -2184,6 +2208,7 @@
         </is>
       </c>
       <c r="E63" t="inlineStr"/>
+      <c r="F63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr"/>
@@ -2195,12 +2220,13 @@
           <t>3.1.1</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>TOTOTo what extent are security zones managed to protect information assets?</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr"/>
+      <c r="D64" t="inlineStr"/>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>To what extent are security zones managed to protect information assets?</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -2322,12 +2348,13 @@
           <t>3.1.2</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>TOTOTo what extent is information security ensured in exceptional situations?</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr"/>
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>To what extent is information security ensured in exceptional situations?</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -2402,12 +2429,13 @@
           <t>3.1.3</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>TOTOTo what extent is the handling of supporting assets managed?</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr"/>
+      <c r="D72" t="inlineStr"/>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>To what extent is the handling of supporting assets managed?</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -2471,12 +2499,13 @@
           <t>3.1.4</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>TOTOTo what extent is the handling of mobile IT devices and mobile data storage devices managed?</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr"/>
+      <c r="D75" t="inlineStr"/>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>To what extent is the handling of mobile IT devices and mobile data storage devices managed?</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -2577,6 +2606,7 @@
         </is>
       </c>
       <c r="E79" t="inlineStr"/>
+      <c r="F79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr"/>
@@ -2588,12 +2618,13 @@
           <t>4.1</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
+      <c r="D80" t="inlineStr"/>
+      <c r="E80" t="inlineStr">
         <is>
           <t>Identity Management</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr"/>
+      <c r="F80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr"/>
@@ -2605,12 +2636,13 @@
           <t>4.1.1</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>TOTOTo what extent is the use of identification means managed?</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr"/>
+      <c r="D81" t="inlineStr"/>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>To what extent is the use of identification means managed?</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -2705,12 +2737,13 @@
           <t>4.1.2</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>TOTOTo what extent is the user access to network services, IT systems and IT applications secured?</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr"/>
+      <c r="D85" t="inlineStr"/>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>To what extent is the user access to network services, IT systems and IT applications secured?</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -2829,12 +2862,13 @@
           <t>4.1.3</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t xml:space="preserve">TOTOTo what extent are user accounts and login information securely managed and applied? </t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr"/>
+      <c r="D90" t="inlineStr"/>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t xml:space="preserve">To what extent are user accounts and login information securely managed and applied? </t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -2920,12 +2954,13 @@
           <t>4.2</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr">
+      <c r="D93" t="inlineStr"/>
+      <c r="E93" t="inlineStr">
         <is>
           <t>Access Management</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr"/>
+      <c r="F93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr"/>
@@ -2937,12 +2972,13 @@
           <t>4.2.1</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>TOTOTo what extent are access rights assigned and managed?</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr"/>
+      <c r="D94" t="inlineStr"/>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>To what extent are access rights assigned and managed?</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -3091,6 +3127,7 @@
         </is>
       </c>
       <c r="E100" t="inlineStr"/>
+      <c r="F100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr"/>
@@ -3102,12 +3139,13 @@
           <t>5.1</t>
         </is>
       </c>
-      <c r="D101" t="inlineStr">
+      <c r="D101" t="inlineStr"/>
+      <c r="E101" t="inlineStr">
         <is>
           <t>Cryptography</t>
         </is>
       </c>
-      <c r="E101" t="inlineStr"/>
+      <c r="F101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr"/>
@@ -3119,12 +3157,13 @@
           <t>5.1.1</t>
         </is>
       </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>TOTOTo what extent is the use of cryptographic procedures managed?</t>
-        </is>
-      </c>
-      <c r="E102" t="inlineStr"/>
+      <c r="D102" t="inlineStr"/>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>To what extent is the use of cryptographic procedures managed?</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -3220,12 +3259,13 @@
           <t>5.1.2</t>
         </is>
       </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>TOTOTo what extent is information protected during transfer?</t>
-        </is>
-      </c>
-      <c r="E106" t="inlineStr"/>
+      <c r="D106" t="inlineStr"/>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>To what extent is information protected during transfer?</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -3345,12 +3385,13 @@
           <t>5.2</t>
         </is>
       </c>
-      <c r="D111" t="inlineStr">
+      <c r="D111" t="inlineStr"/>
+      <c r="E111" t="inlineStr">
         <is>
           <t>Operations Security</t>
         </is>
       </c>
-      <c r="E111" t="inlineStr"/>
+      <c r="F111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr"/>
@@ -3362,12 +3403,13 @@
           <t>5.2.1</t>
         </is>
       </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t xml:space="preserve">TOTOTo what extent are changes managed? </t>
-        </is>
-      </c>
-      <c r="E112" t="inlineStr"/>
+      <c r="D112" t="inlineStr"/>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t xml:space="preserve">To what extent are changes managed? </t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -3460,12 +3502,13 @@
           <t>5.2.2</t>
         </is>
       </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>TOTOTo what extent are development and testing environments separated from operational environments?</t>
-        </is>
-      </c>
-      <c r="E116" t="inlineStr"/>
+      <c r="D116" t="inlineStr"/>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>To what extent are development and testing environments separated from operational environments?</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -3533,12 +3576,13 @@
           <t>5.2.3</t>
         </is>
       </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>TOTOTo what extent are IT systems protected against malware?</t>
-        </is>
-      </c>
-      <c r="E119" t="inlineStr"/>
+      <c r="D119" t="inlineStr"/>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>To what extent are IT systems protected against malware?</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -3612,12 +3656,13 @@
           <t>5.2.4</t>
         </is>
       </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>TOTOTo what extent are event logs recorded and analyzed?</t>
-        </is>
-      </c>
-      <c r="E122" t="inlineStr"/>
+      <c r="D122" t="inlineStr"/>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>To what extent are event logs recorded and analyzed?</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -3740,12 +3785,13 @@
           <t>5.2.5</t>
         </is>
       </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t xml:space="preserve">TOTOTo what extent are vulnerabilities identified and addressed? </t>
-        </is>
-      </c>
-      <c r="E127" t="inlineStr"/>
+      <c r="D127" t="inlineStr"/>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t xml:space="preserve">To what extent are vulnerabilities identified and addressed? </t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -3812,12 +3858,13 @@
           <t>5.2.6</t>
         </is>
       </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>TOTOTo what extent are IT systems technically checked (system audit)?</t>
-        </is>
-      </c>
-      <c r="E130" t="inlineStr"/>
+      <c r="D130" t="inlineStr"/>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>To what extent are IT systems technically checked (system audit)?</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -3888,13 +3935,14 @@
           <t>5.2.7</t>
         </is>
       </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t xml:space="preserve">TOTOTo what extent is the network of the organization managed?
+      <c r="D133" t="inlineStr"/>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t xml:space="preserve">To what extent is the network of the organization managed?
 </t>
         </is>
       </c>
-      <c r="E133" t="inlineStr"/>
+      <c r="F133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -3993,12 +4041,13 @@
           <t>5.3</t>
         </is>
       </c>
-      <c r="D137" t="inlineStr">
+      <c r="D137" t="inlineStr"/>
+      <c r="E137" t="inlineStr">
         <is>
           <t>System acquisitions, requirement management and development</t>
         </is>
       </c>
-      <c r="E137" t="inlineStr"/>
+      <c r="F137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr"/>
@@ -4010,12 +4059,13 @@
           <t>5.3.1</t>
         </is>
       </c>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>TOTOTo what extent is information security considered in new or further developed IT systems?</t>
-        </is>
-      </c>
-      <c r="E138" t="inlineStr"/>
+      <c r="D138" t="inlineStr"/>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>To what extent is information security considered in new or further developed IT systems?</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -4088,12 +4138,13 @@
           <t>5.3.2</t>
         </is>
       </c>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>TOTOTo what extent are requirements for network services defined?</t>
-        </is>
-      </c>
-      <c r="E141" t="inlineStr"/>
+      <c r="D141" t="inlineStr"/>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>To what extent are requirements for network services defined?</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -4185,12 +4236,13 @@
           <t>5.3.3</t>
         </is>
       </c>
-      <c r="D145" t="inlineStr">
-        <is>
-          <t xml:space="preserve">TOTOTo what extent is the return and secure removal of information assets from external IT services regulated? </t>
-        </is>
-      </c>
-      <c r="E145" t="inlineStr"/>
+      <c r="D145" t="inlineStr"/>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t xml:space="preserve">To what extent is the return and secure removal of information assets from external IT services regulated? </t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -4254,12 +4306,13 @@
           <t>5.3.4</t>
         </is>
       </c>
-      <c r="D148" t="inlineStr">
-        <is>
-          <t>TOTOTo what extent is information protected in shared external IT services?</t>
-        </is>
-      </c>
-      <c r="E148" t="inlineStr"/>
+      <c r="D148" t="inlineStr"/>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>To what extent is information protected in shared external IT services?</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -4331,6 +4384,7 @@
         </is>
       </c>
       <c r="E151" t="inlineStr"/>
+      <c r="F151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr"/>
@@ -4342,13 +4396,14 @@
           <t>6.1.1</t>
         </is>
       </c>
-      <c r="D152" t="inlineStr">
-        <is>
-          <t xml:space="preserve">TOTOTo what extent is information security ensured among contractors and cooperation partners?
+      <c r="D152" t="inlineStr"/>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t xml:space="preserve">To what extent is information security ensured among contractors and cooperation partners?
 </t>
         </is>
       </c>
-      <c r="E152" t="inlineStr"/>
+      <c r="F152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -4470,12 +4525,13 @@
           <t>6.1.2</t>
         </is>
       </c>
-      <c r="D157" t="inlineStr">
-        <is>
-          <t>TOTOTo what extent is non-disclosure regarding the exchange of information contractually agreed?</t>
-        </is>
-      </c>
-      <c r="E157" t="inlineStr"/>
+      <c r="D157" t="inlineStr"/>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>To what extent is non-disclosure regarding the exchange of information contractually agreed?</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -4557,6 +4613,7 @@
         </is>
       </c>
       <c r="E160" t="inlineStr"/>
+      <c r="F160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr"/>
@@ -4568,12 +4625,13 @@
           <t>7.1.1</t>
         </is>
       </c>
-      <c r="D161" t="inlineStr">
-        <is>
-          <t>TOTOTo what extent is compliance with regulatory and contractual provisions ensured?</t>
-        </is>
-      </c>
-      <c r="E161" t="inlineStr"/>
+      <c r="D161" t="inlineStr"/>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>To what extent is compliance with regulatory and contractual provisions ensured?</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -4638,12 +4696,13 @@
           <t>7.1.2</t>
         </is>
       </c>
-      <c r="D164" t="inlineStr">
-        <is>
-          <t xml:space="preserve">TOTOTo what extent is the protection of personally identifiable data taken into account when implementing information security? </t>
-        </is>
-      </c>
-      <c r="E164" t="inlineStr"/>
+      <c r="D164" t="inlineStr"/>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t xml:space="preserve">To what extent is the protection of personally identifiable data taken into account when implementing information security? </t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -4689,6 +4748,7 @@
         </is>
       </c>
       <c r="E166" t="inlineStr"/>
+      <c r="F166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr"/>
@@ -4700,12 +4760,13 @@
           <t>8.1</t>
         </is>
       </c>
-      <c r="D167" t="inlineStr">
+      <c r="D167" t="inlineStr"/>
+      <c r="E167" t="inlineStr">
         <is>
           <t>Physical and Environmental Security</t>
         </is>
       </c>
-      <c r="E167" t="inlineStr"/>
+      <c r="F167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr"/>
@@ -4717,12 +4778,13 @@
           <t>8.1.1</t>
         </is>
       </c>
-      <c r="D168" t="inlineStr">
-        <is>
-          <t>TOTOTo what extent is a security concept available describing minimum requirements regarding the physical and environmental security for prototype protection?</t>
-        </is>
-      </c>
-      <c r="E168" t="inlineStr"/>
+      <c r="D168" t="inlineStr"/>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>To what extent is a security concept available describing minimum requirements regarding the physical and environmental security for prototype protection?</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -4792,12 +4854,13 @@
           <t>8.1.2</t>
         </is>
       </c>
-      <c r="D171" t="inlineStr">
-        <is>
-          <t>TOTOTo what extent is perimeter security existent preventing unauthorized access to protected property objects?</t>
-        </is>
-      </c>
-      <c r="E171" t="inlineStr"/>
+      <c r="D171" t="inlineStr"/>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>To what extent is perimeter security existent preventing unauthorized access to protected property objects?</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -4864,12 +4927,13 @@
           <t>8.1.3</t>
         </is>
       </c>
-      <c r="D174" t="inlineStr">
-        <is>
-          <t>TOTOTo what extent is the outer skin of the protected buildings constructed such as to prevent removal or opening of outer-skin components using standard tools?</t>
-        </is>
-      </c>
-      <c r="E174" t="inlineStr"/>
+      <c r="D174" t="inlineStr"/>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>To what extent is the outer skin of the protected buildings constructed such as to prevent removal or opening of outer-skin components using standard tools?</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -4934,12 +4998,13 @@
           <t>8.1.4</t>
         </is>
       </c>
-      <c r="D177" t="inlineStr">
-        <is>
-          <t>TOTOTo what extent is view and sight protection ensured in defined security areas?</t>
-        </is>
-      </c>
-      <c r="E177" t="inlineStr"/>
+      <c r="D177" t="inlineStr"/>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>To what extent is view and sight protection ensured in defined security areas?</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -5030,12 +5095,13 @@
           <t>8.1.5</t>
         </is>
       </c>
-      <c r="D181" t="inlineStr">
-        <is>
-          <t>TOTOTo what extent is the protection against unauthorized entry regulated in the form of access control?</t>
-        </is>
-      </c>
-      <c r="E181" t="inlineStr"/>
+      <c r="D181" t="inlineStr"/>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>To what extent is the protection against unauthorized entry regulated in the form of access control?</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -5102,12 +5168,13 @@
           <t>8.1.6</t>
         </is>
       </c>
-      <c r="D184" t="inlineStr">
-        <is>
-          <t>TOTOTo what extent are the premises to be secured monitored for intrusion?</t>
-        </is>
-      </c>
-      <c r="E184" t="inlineStr"/>
+      <c r="D184" t="inlineStr"/>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>To what extent are the premises to be secured monitored for intrusion?</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -5149,12 +5216,13 @@
           <t>8.1.7</t>
         </is>
       </c>
-      <c r="D186" t="inlineStr">
-        <is>
-          <t>TOTOTo what extent is a documented visitor management in place?</t>
-        </is>
-      </c>
-      <c r="E186" t="inlineStr"/>
+      <c r="D186" t="inlineStr"/>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>To what extent is a documented visitor management in place?</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -5195,12 +5263,13 @@
           <t>8.1.8</t>
         </is>
       </c>
-      <c r="D188" t="inlineStr">
-        <is>
-          <t>TOTOTo what extent is on-site client segregation existent?</t>
-        </is>
-      </c>
-      <c r="E188" t="inlineStr"/>
+      <c r="D188" t="inlineStr"/>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>To what extent is on-site client segregation existent?</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -5267,12 +5336,13 @@
           <t>8.2</t>
         </is>
       </c>
-      <c r="D191" t="inlineStr">
+      <c r="D191" t="inlineStr"/>
+      <c r="E191" t="inlineStr">
         <is>
           <t>Organizational Requirements</t>
         </is>
       </c>
-      <c r="E191" t="inlineStr"/>
+      <c r="F191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr"/>
@@ -5284,12 +5354,13 @@
           <t>8.2.1</t>
         </is>
       </c>
-      <c r="D192" t="inlineStr">
-        <is>
-          <t>TOTOTo what extent are non-disclosure agreements/obligations existent according to the valid contractual law?</t>
-        </is>
-      </c>
-      <c r="E192" t="inlineStr"/>
+      <c r="D192" t="inlineStr"/>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>To what extent are non-disclosure agreements/obligations existent according to the valid contractual law?</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -5330,12 +5401,13 @@
           <t>8.2.2</t>
         </is>
       </c>
-      <c r="D194" t="inlineStr">
-        <is>
-          <t>TOTOTo what extent are requirements for commissioning subcontractors known and fulfilled?</t>
-        </is>
-      </c>
-      <c r="E194" t="inlineStr"/>
+      <c r="D194" t="inlineStr"/>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>To what extent are requirements for commissioning subcontractors known and fulfilled?</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -5378,12 +5450,13 @@
           <t>8.2.3</t>
         </is>
       </c>
-      <c r="D196" t="inlineStr">
-        <is>
-          <t>TOTOTo what extent do employees and project members evidently participate in training and awareness measures regarding the handling of prototypes?</t>
-        </is>
-      </c>
-      <c r="E196" t="inlineStr"/>
+      <c r="D196" t="inlineStr"/>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>To what extent do employees and project members evidently participate in training and awareness measures regarding the handling of prototypes?</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -5427,12 +5500,13 @@
           <t>8.2.4</t>
         </is>
       </c>
-      <c r="D198" t="inlineStr">
-        <is>
-          <t>TOTOTo what extent are security classifications of the project and the resulting security measures known?</t>
-        </is>
-      </c>
-      <c r="E198" t="inlineStr"/>
+      <c r="D198" t="inlineStr"/>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>To what extent are security classifications of the project and the resulting security measures known?</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -5472,12 +5546,13 @@
           <t>8.2.5</t>
         </is>
       </c>
-      <c r="D200" t="inlineStr">
-        <is>
-          <t>TOTOTo what extent is a process defined for granting access to security areas?</t>
-        </is>
-      </c>
-      <c r="E200" t="inlineStr"/>
+      <c r="D200" t="inlineStr"/>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>To what extent is a process defined for granting access to security areas?</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -5517,12 +5592,13 @@
           <t>8.2.6</t>
         </is>
       </c>
-      <c r="D202" t="inlineStr">
-        <is>
-          <t>TOTOTo what extent are regulations for image recording and handling of created image material existent?</t>
-        </is>
-      </c>
-      <c r="E202" t="inlineStr"/>
+      <c r="D202" t="inlineStr"/>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>To what extent are regulations for image recording and handling of created image material existent?</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -5564,12 +5640,13 @@
           <t>8.2.7</t>
         </is>
       </c>
-      <c r="D204" t="inlineStr">
-        <is>
-          <t>TOTOTo what extent is a process for carrying along and using mobile video and photography devices in(to) defined security areas established?</t>
-        </is>
-      </c>
-      <c r="E204" t="inlineStr"/>
+      <c r="D204" t="inlineStr"/>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>To what extent is a process for carrying along and using mobile video and photography devices in(to) defined security areas established?</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -5608,12 +5685,13 @@
           <t>8.3</t>
         </is>
       </c>
-      <c r="D206" t="inlineStr">
+      <c r="D206" t="inlineStr"/>
+      <c r="E206" t="inlineStr">
         <is>
           <t>Handling of vehicles, components and parts</t>
         </is>
       </c>
-      <c r="E206" t="inlineStr"/>
+      <c r="F206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr"/>
@@ -5625,12 +5703,13 @@
           <t>8.3.1</t>
         </is>
       </c>
-      <c r="D207" t="inlineStr">
-        <is>
-          <t>TOTOTo what extent are transports of vehicles, components or parts classified as requiring protection arranged according to the customer requirements?</t>
-        </is>
-      </c>
-      <c r="E207" t="inlineStr"/>
+      <c r="D207" t="inlineStr"/>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>To what extent are transports of vehicles, components or parts classified as requiring protection arranged according to the customer requirements?</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -5671,12 +5750,13 @@
           <t>8.3.2</t>
         </is>
       </c>
-      <c r="D209" t="inlineStr">
-        <is>
-          <t>TOTOTo what extent is it ensured that vehicles, components and parts classified as requiring protection are parked/stored in accordance with customer requirements?</t>
-        </is>
-      </c>
-      <c r="E209" t="inlineStr"/>
+      <c r="D209" t="inlineStr"/>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>To what extent is it ensured that vehicles, components and parts classified as requiring protection are parked/stored in accordance with customer requirements?</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -5714,12 +5794,13 @@
           <t>8.4</t>
         </is>
       </c>
-      <c r="D211" t="inlineStr">
+      <c r="D211" t="inlineStr"/>
+      <c r="E211" t="inlineStr">
         <is>
           <t>Requirements for trial vehicles</t>
         </is>
       </c>
-      <c r="E211" t="inlineStr"/>
+      <c r="F211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr"/>
@@ -5731,12 +5812,13 @@
           <t>8.4.1</t>
         </is>
       </c>
-      <c r="D212" t="inlineStr">
-        <is>
-          <t>TOTOTo what extent are the predefined camouflage regulations implemented by the project members?</t>
-        </is>
-      </c>
-      <c r="E212" t="inlineStr"/>
+      <c r="D212" t="inlineStr"/>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>To what extent are the predefined camouflage regulations implemented by the project members?</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -5776,12 +5858,13 @@
           <t>8.4.2</t>
         </is>
       </c>
-      <c r="D214" t="inlineStr">
-        <is>
-          <t>TOTOTo what extent are measures for protecting approved test and trial grounds observed/implemented?</t>
-        </is>
-      </c>
-      <c r="E214" t="inlineStr"/>
+      <c r="D214" t="inlineStr"/>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>To what extent are measures for protecting approved test and trial grounds observed/implemented?</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -5823,12 +5906,13 @@
           <t>8.4.3</t>
         </is>
       </c>
-      <c r="D216" t="inlineStr">
-        <is>
-          <t>TOTOTo what extent are protective measures for approved test and trial drives in public observed/implemented?</t>
-        </is>
-      </c>
-      <c r="E216" t="inlineStr"/>
+      <c r="D216" t="inlineStr"/>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>To what extent are protective measures for approved test and trial drives in public observed/implemented?</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -5868,12 +5952,13 @@
           <t>8.5</t>
         </is>
       </c>
-      <c r="D218" t="inlineStr">
+      <c r="D218" t="inlineStr"/>
+      <c r="E218" t="inlineStr">
         <is>
           <t>Requirements for events and shootings</t>
         </is>
       </c>
-      <c r="E218" t="inlineStr"/>
+      <c r="F218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr"/>
@@ -5885,12 +5970,13 @@
           <t>8.5.1</t>
         </is>
       </c>
-      <c r="D219" t="inlineStr">
-        <is>
-          <t>TOTOTo what extent are security requirements for presentations and events involving vehicles, components or parts classified as requiring protection known?</t>
-        </is>
-      </c>
-      <c r="E219" t="inlineStr"/>
+      <c r="D219" t="inlineStr"/>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>To what extent are security requirements for presentations and events involving vehicles, components or parts classified as requiring protection known?</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -5931,12 +6017,13 @@
           <t>8.5.2</t>
         </is>
       </c>
-      <c r="D221" t="inlineStr">
-        <is>
-          <t>TOTOTo what extent are the protective measures for film and photo shootings involving vehicles, components or parts classified as requiring protection known?</t>
-        </is>
-      </c>
-      <c r="E221" t="inlineStr"/>
+      <c r="D221" t="inlineStr"/>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>To what extent are the protective measures for film and photo shootings involving vehicles, components or parts classified as requiring protection known?</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -5984,6 +6071,7 @@
         </is>
       </c>
       <c r="E223" t="inlineStr"/>
+      <c r="F223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr"/>
@@ -5995,12 +6083,13 @@
           <t>9.1</t>
         </is>
       </c>
-      <c r="D224" t="inlineStr">
+      <c r="D224" t="inlineStr"/>
+      <c r="E224" t="inlineStr">
         <is>
           <t>To what extent is the implementation of data protection organized?</t>
         </is>
       </c>
-      <c r="E224" t="inlineStr"/>
+      <c r="F224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -6045,12 +6134,13 @@
           <t>9.2</t>
         </is>
       </c>
-      <c r="D226" t="inlineStr">
+      <c r="D226" t="inlineStr"/>
+      <c r="E226" t="inlineStr">
         <is>
           <t>To what extent are organizational measures taken in order to ensure that personally identifiable data is processed in conformance with legislation?</t>
         </is>
       </c>
-      <c r="E226" t="inlineStr"/>
+      <c r="F226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -6101,12 +6191,13 @@
           <t>9.3</t>
         </is>
       </c>
-      <c r="D228" t="inlineStr">
+      <c r="D228" t="inlineStr"/>
+      <c r="E228" t="inlineStr">
         <is>
           <t>To what extent is it ensured that the internal processes or workflows are carried out according to the currently valid data protection regulations and that these are regularly subjected to a quality check?</t>
         </is>
       </c>
-      <c r="E228" t="inlineStr"/>
+      <c r="F228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -6148,13 +6239,14 @@
           <t>9.4</t>
         </is>
       </c>
-      <c r="D230" t="inlineStr">
+      <c r="D230" t="inlineStr"/>
+      <c r="E230" t="inlineStr">
         <is>
           <t xml:space="preserve">To what extent are the relevant processing procedures documented with regard to their admissibility according to data protection law?
 </t>
         </is>
       </c>
-      <c r="E230" t="inlineStr"/>
+      <c r="F230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
